--- a/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
+++ b/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14180E5-2CCF-4346-A1D5-ACF5FA956F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7394D1B-D36B-4EDC-8507-EB0C0A96040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="1395" windowWidth="24450" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="1395" windowWidth="24450" windowHeight="12765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Package &amp; Eclipe preferences" sheetId="1" r:id="rId1"/>
     <sheet name="Variable 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Variable 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <r>
       <t>T</t>
@@ -476,12 +477,272 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>char first_name;</t>
+  </si>
+  <si>
+    <t>// underscores</t>
+  </si>
+  <si>
+    <t>int age</t>
+  </si>
+  <si>
+    <t>= 20;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int year </t>
+  </si>
+  <si>
+    <t>= 2015;</t>
+  </si>
+  <si>
+    <t>System.out.println("age: " + age);</t>
+  </si>
+  <si>
+    <t>System.out.println("year: " + year);</t>
+  </si>
+  <si>
+    <t>System.out.println("name: " + name);</t>
+  </si>
+  <si>
+    <t>age += 10;</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a khai báo bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>char chi l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u 1 ký t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dùng nháy đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n không dùng nháy đôi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char name   = 'Q';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ực thi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +778,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -638,8 +906,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1366,6 +1634,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>124412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6084C07-C692-F4BE-EF8E-8A1C93004224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784411" y="10469469"/>
+          <a:ext cx="9995647" cy="7360237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176119</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141164</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>25586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29AC83E-3030-4582-C3A3-9CFDB12A19F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="837266" y="18758647"/>
+          <a:ext cx="7240838" cy="1882588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3202,13 +3563,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92D4B22-AFE4-4927-ACA5-EF5C9D8E3284}">
   <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3218,39 +3579,45 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" s="4"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="4"/>
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7" s="4"/>
       <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:9">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3258,12 +3625,12 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3274,79 +3641,49 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:9">
       <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:9">
       <c r="B16" s="4"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="4"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" t="s">
         <v>35</v>
@@ -3357,13 +3694,9 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="J21" t="s">
         <v>38</v>
@@ -3373,111 +3706,75 @@
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
+      <c r="F30" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" t="s">
         <v>35</v>
@@ -3488,48 +3785,32 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="s">
+      <c r="F31" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="12"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
@@ -3545,4 +3826,645 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73256624-659A-4D8B-9D1E-807773AD12AA}">
+  <dimension ref="B3:M94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="4"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4"/>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="4"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="4"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="5"/>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="5"/>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4"/>
+      <c r="C43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="4"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="4"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="5"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="4"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="4"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="4"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="4"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="4"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="4"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="4"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="4"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
+++ b/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7394D1B-D36B-4EDC-8507-EB0C0A96040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B72F9-F9CF-4A29-BD29-2C48411F441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="1395" windowWidth="24450" windowHeight="12765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="1395" windowWidth="24450" windowHeight="12765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Package &amp; Eclipe preferences" sheetId="1" r:id="rId1"/>
     <sheet name="Variable 1" sheetId="2" r:id="rId2"/>
     <sheet name="Variable 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Constant" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
   <si>
     <r>
       <t>T</t>
@@ -735,6 +736,711 @@
   </si>
   <si>
     <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>final int YOUR_BIRTHDAY = 1990;</t>
+  </si>
+  <si>
+    <t>System.out.println(YOUR_BIRTHDAY);</t>
+  </si>
+  <si>
+    <t>// 001 Variable</t>
+  </si>
+  <si>
+    <t>public static void main001() {</t>
+  </si>
+  <si>
+    <t>char name   = 'Q';</t>
+  </si>
+  <si>
+    <r>
+      <t>Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c thi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Quy tắt đặt tên hằng số t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng tự nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quy tắt đặt tên cho biến số</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khác v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> là giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>không th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> thay đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">n) </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cú pháp: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u] [Tên h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] = [Giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>in hoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> + underscore</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -742,7 +1448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +1491,48 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -893,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -906,8 +1654,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1727,6 +2476,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230621</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>125981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7DFD8C-8A70-FEEA-E007-F8DB395A2315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="12087225"/>
+          <a:ext cx="9231746" cy="8152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135202</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FC102B-F1E1-EFC5-813B-D20F0C195376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="20904200"/>
+          <a:ext cx="7269427" cy="1355725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3832,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73256624-659A-4D8B-9D1E-807773AD12AA}">
   <dimension ref="B3:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3864,7 +4706,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4"/>
-      <c r="E6" s="12" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="5"/>
@@ -3912,253 +4754,169 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4"/>
-      <c r="C16" s="13" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="F30" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="13"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
+      <c r="F31" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="D34" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
+      <c r="F34" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="13"/>
       <c r="H34" s="5"/>
       <c r="I34" t="s">
         <v>35</v>
@@ -4169,26 +4927,19 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="s">
+      <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
+      <c r="F35" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
       <c r="H36" s="5"/>
       <c r="I36" t="s">
         <v>35</v>
@@ -4199,88 +4950,54 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="4"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
+      <c r="D42" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:10">
@@ -4310,142 +5027,42 @@
     </row>
     <row r="84" spans="2:13">
       <c r="B84" s="4"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="4"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="4"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
       <c r="M86" s="5"/>
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="4"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="2:13">
       <c r="B88" s="4"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="2:13">
       <c r="B89" s="4"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="2:13">
       <c r="B90" s="4"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="2:13">
       <c r="B91" s="4"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="2:13">
       <c r="B92" s="4"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="2:13">
       <c r="B93" s="4"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="2:13">
@@ -4467,4 +5084,711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CFEC40-0509-468A-86CC-0F302BC14E80}">
+  <dimension ref="B3:M105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="4"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="4"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="4"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="4"/>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="4"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="4"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="5"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="4"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="4"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="4"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="4"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="4"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
+++ b/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B72F9-F9CF-4A29-BD29-2C48411F441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98AD42-A17D-40DB-8D74-1DC2AAF1996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="1395" windowWidth="24450" windowHeight="12765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30930" yWindow="1050" windowWidth="25215" windowHeight="13350" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Package &amp; Eclipe preferences" sheetId="1" r:id="rId1"/>
     <sheet name="Variable 1" sheetId="2" r:id="rId2"/>
     <sheet name="Variable 2" sheetId="3" r:id="rId3"/>
     <sheet name="Constant" sheetId="4" r:id="rId4"/>
+    <sheet name="Data type" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
   <si>
     <r>
       <t>T</t>
@@ -1442,6 +1443,584 @@
       <t xml:space="preserve"> + underscore</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u Nguyên Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y (Primitive Data Types):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Đây là các kiểu dữ liệu mà lập trình viên có thể sử dụng để khai báo biến và l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u trữ các giá trị nguyên thủy trực tiếp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・Trong Java, có 8 kiểu dữ liệu nguyên thủy c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản: byte, short, int, long, float, double, char và boolean.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・Các biến đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc khai báo với kiểu dữ liệu nguyên thủy trực tiếp chứ không phải là tham chiếu đến một vùng nhớ khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・Đây là các kiểu dữ liệu mà không có các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thức và thuộc tính đi kèm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>int num = 10;</t>
+  </si>
+  <si>
+    <t>double pi = 3.14;</t>
+  </si>
+  <si>
+    <t>char letter = 'A';</t>
+  </si>
+  <si>
+    <t>boolean flag = true;</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u Tham Chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u (Reference Data Types):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Đây là các kiểu dữ liệu mà l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u trữ địa chỉ tham chiếu đến đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng trong bộ nhớ, chứ không phải giá trị thực sự.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・Trong Java, các kiểu dữ liệu tham chiếu bao gồm các loại cụ thể nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: lớp (class), giao diện (interface), mảng (array), và các kiểu dữ liệu tham chiếu khác đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc tạo ra bởi ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời dùng hoặc bởi các th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> viện.</t>
+    </r>
+  </si>
+  <si>
+    <t>・Biến với kiểu dữ liệu tham chiếu sẽ chứa địa chỉ của vùng nhớ chứa dữ liệu thực sự.</t>
+  </si>
+  <si>
+    <r>
+      <t>・Các kiểu dữ liệu tham chiếu có thể có ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thức và thuộc tính đi kèm.</t>
+    </r>
+  </si>
+  <si>
+    <t>String str = "Hello";</t>
+  </si>
+  <si>
+    <t>Scanner scanner = new Scanner(System.in);</t>
+  </si>
+  <si>
+    <t>java\java_training\src\ph1_basic\p02_variable.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t>        int var1    = 12;</t>
+  </si>
+  <si>
+    <t>        byte var2   = 10;</t>
+  </si>
+  <si>
+    <t>        boolean var3 = true;</t>
+  </si>
+  <si>
+    <t>        double var4 = 123.456;</t>
+  </si>
+  <si>
+    <t>        String name = "John Smith";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        System.out.println("var1: " + var1);</t>
+  </si>
+  <si>
+    <t>        System.out.println("var2: " + var2);</t>
+  </si>
+  <si>
+    <t>        System.out.println("var3: " + var3);</t>
+  </si>
+  <si>
+    <t>        System.out.println("var4: " + var4);</t>
+  </si>
+  <si>
+    <t>        System.out.println("name: " + name);</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    // 002 Constant</t>
+  </si>
+  <si>
+    <t>    public static void main002(String[] args) {</t>
+  </si>
+  <si>
+    <t>        final int YOUR_BIRTHDAY = 1990;</t>
+  </si>
+  <si>
+    <t>        System.out.println(YOUR_BIRTHDAY);</t>
+  </si>
+  <si>
+    <t>    // 001 Variable</t>
+  </si>
+  <si>
+    <t>    public static void main001() {</t>
+  </si>
+  <si>
+    <t>        System.out.println("p02_variable");</t>
+  </si>
+  <si>
+    <t>        // Khai bao bien</t>
+  </si>
+  <si>
+    <t>        /*</t>
+  </si>
+  <si>
+    <t>         * Ctrl + D: Xoa di dong code muon xoa</t>
+  </si>
+  <si>
+    <t>         */</t>
+  </si>
+  <si>
+    <t>//      int age;</t>
+  </si>
+  <si>
+    <t>//      int year;</t>
+  </si>
+  <si>
+    <t>//      char name;</t>
+  </si>
+  <si>
+    <t>//      char city;</t>
+  </si>
+  <si>
+    <t>//      int age, year;</t>
+  </si>
+  <si>
+    <t>//      char name, city;</t>
+  </si>
+  <si>
+    <t>        // First name</t>
+  </si>
+  <si>
+    <t>//      char firstname;     // normal</t>
+  </si>
+  <si>
+    <t>//      char firstName;     // camelCase</t>
+  </si>
+  <si>
+    <t>//      char first_name;    // underscores</t>
+  </si>
+  <si>
+    <t>        int age     = 20;</t>
+  </si>
+  <si>
+    <t>        int year        = 2015;</t>
+  </si>
+  <si>
+    <t>        char name   = 'Q';</t>
+  </si>
+  <si>
+    <t>        System.out.println("age: " + age);</t>
+  </si>
+  <si>
+    <t>        System.out.println("year: " + year);</t>
+  </si>
+  <si>
+    <t>        age += 10;</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +2220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1654,9 +2233,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2569,6 +3149,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335049</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>30940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217F34DE-5417-0A73-2042-5F3D2B2A98F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806450" y="20069175"/>
+          <a:ext cx="12012699" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>364194</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>180134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE082558-C3B4-6D9F-3DF9-D038F74FB4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="27289125"/>
+          <a:ext cx="7450794" cy="6723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5090,8 +5763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CFEC40-0509-468A-86CC-0F302BC14E80}">
   <dimension ref="B3:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5152,61 +5825,25 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="12" t="s">
+      <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
@@ -5226,427 +5863,277 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
+      <c r="D37" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
+      <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
+      <c r="F42" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="12"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
+      <c r="F43" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="12"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12" t="s">
+      <c r="D46" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
+      <c r="F46" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="12"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
+      <c r="F47" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="12"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="s">
+      <c r="D48" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
+      <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12" t="s">
+      <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12" t="s">
+      <c r="D51" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12" t="s">
+      <c r="D53" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="4"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12" t="s">
+      <c r="D54" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="4"/>
-      <c r="C55" s="12" t="s">
+      <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
@@ -5676,100 +6163,30 @@
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="4"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
       <c r="M98" s="5"/>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
       <c r="M99" s="5"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="4"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
       <c r="M100" s="5"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="4"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
       <c r="M101" s="5"/>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="4"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
       <c r="M102" s="5"/>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="4"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
       <c r="M103" s="5"/>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="4"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
       <c r="M104" s="5"/>
     </row>
     <row r="105" spans="2:13">
@@ -5791,4 +6208,1212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E5F8AB-F829-4812-95AD-BC9AA6B518C1}">
+  <dimension ref="B3:M150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="U129" sqref="U129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="4"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" s="4"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" s="4"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" s="4"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="4"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="5"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="4"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" s="4"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="5"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="4"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" s="4"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129" s="4"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130" s="4"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131" s="4"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="4"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="5"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" s="4"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="4"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="2:13">
+      <c r="B135" s="4"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="5"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136" s="4"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="2:13">
+      <c r="B137" s="4"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="4"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="4"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="4"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="4"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="4"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="4"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="4"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="4"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="5"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="4"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="4"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="5"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="4"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="5"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="4"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
+++ b/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98AD42-A17D-40DB-8D74-1DC2AAF1996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD1F06B-772B-4354-A440-06882D16BB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="1050" windowWidth="25215" windowHeight="13350" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30930" yWindow="1050" windowWidth="25215" windowHeight="13350" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Package &amp; Eclipe preferences" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Variable 2" sheetId="3" r:id="rId3"/>
     <sheet name="Constant" sheetId="4" r:id="rId4"/>
     <sheet name="Data type" sheetId="5" r:id="rId5"/>
+    <sheet name="Type casting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="155">
   <si>
     <r>
       <t>T</t>
@@ -1582,7 +1583,133 @@
   </si>
   <si>
     <r>
-      <t>・Các biến đ</t>
+      <t>・Đây là các kiểu dữ liệu mà không có các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thức và thuộc tính đi kèm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>int num = 10;</t>
+  </si>
+  <si>
+    <t>double pi = 3.14;</t>
+  </si>
+  <si>
+    <t>char letter = 'A';</t>
+  </si>
+  <si>
+    <t>boolean flag = true;</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u Tham Chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u (Reference Data Types):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Đây là các kiểu dữ liệu mà l</t>
     </r>
     <r>
       <rPr>
@@ -1602,138 +1729,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ợc khai báo với kiểu dữ liệu nguyên thủy trực tiếp chứ không phải là tham chiếu đến một vùng nhớ khác.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>・Đây là các kiểu dữ liệu mà không có các ph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ươ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ng thức và thuộc tính đi kèm.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ví dụ:</t>
-  </si>
-  <si>
-    <t>int num = 10;</t>
-  </si>
-  <si>
-    <t>double pi = 3.14;</t>
-  </si>
-  <si>
-    <t>char letter = 'A';</t>
-  </si>
-  <si>
-    <t>boolean flag = true;</t>
-  </si>
-  <si>
-    <r>
-      <t>2. Ki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ữ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u Tham Chi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ế</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u (Reference Data Types):</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・Đây là các kiểu dữ liệu mà l</t>
+      <t>u trữ địa chỉ tham chiếu đến đối t</t>
     </r>
     <r>
       <rPr>
@@ -1753,7 +1749,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u trữ địa chỉ tham chiếu đến đối t</t>
+      <t>ợng trong bộ nhớ, chứ không phải giá trị thực sự.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>・Trong Java, các kiểu dữ liệu tham chiếu bao gồm các loại cụ thể nh</t>
     </r>
     <r>
       <rPr>
@@ -1773,12 +1774,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ợng trong bộ nhớ, chứ không phải giá trị thực sự.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>・Trong Java, các kiểu dữ liệu tham chiếu bao gồm các loại cụ thể nh</t>
+      <t>: lớp (class), giao diện (interface), mảng (array), và các kiểu dữ liệu tham chiếu khác đ</t>
     </r>
     <r>
       <rPr>
@@ -1798,7 +1794,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: lớp (class), giao diện (interface), mảng (array), và các kiểu dữ liệu tham chiếu khác đ</t>
+      <t>ợc tạo ra bởi ng</t>
     </r>
     <r>
       <rPr>
@@ -1818,7 +1814,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ợc tạo ra bởi ng</t>
+      <t>ời dùng hoặc bởi các th</t>
     </r>
     <r>
       <rPr>
@@ -1838,31 +1834,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ời dùng hoặc bởi các th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> viện.</t>
     </r>
-  </si>
-  <si>
-    <t>・Biến với kiểu dữ liệu tham chiếu sẽ chứa địa chỉ của vùng nhớ chứa dữ liệu thực sự.</t>
   </si>
   <si>
     <r>
@@ -2021,13 +1994,3566 @@
   </si>
   <si>
     <t>        age += 10;</t>
+  </si>
+  <si>
+    <r>
+      <t>・Các bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c khai báo v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u nguyên th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>y tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>không ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i là tham chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t vùng nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> khác</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tham chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a vùng nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Trong Java, chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng (widening conversion) và thu h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p (narrowing conversion) th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng và t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng minh, nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng có m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quy t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ắ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c và hình th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng (Widening Conversion):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y ra khi b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n sang m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2. Chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i Thu H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p (Narrowing Conversion):</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i thu h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y ra khi b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n sang m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i này đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i trình biên d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ch Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o không m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t mát d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i này c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t cách t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng minh và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t mát d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Trong chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i thu h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p, có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y ra m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t mát d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t qua gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 004 Type casting</t>
+  </si>
+  <si>
+    <t>int var1 = 12;</t>
+  </si>
+  <si>
+    <t>double var2 = 1.23;</t>
+  </si>
+  <si>
+    <t>int var3 = var1 + (int)var2;</t>
+  </si>
+  <si>
+    <t>System.out.println("var3: " + var3);</t>
+  </si>
+  <si>
+    <t>System.out.println("var4: " + var4);</t>
+  </si>
+  <si>
+    <t>// 003 Data Type</t>
+  </si>
+  <si>
+    <t>public static void main003(String[] args) {</t>
+  </si>
+  <si>
+    <t>int var1</t>
+  </si>
+  <si>
+    <t>= 12;</t>
+  </si>
+  <si>
+    <t>byte var2</t>
+  </si>
+  <si>
+    <t>= 10;</t>
+  </si>
+  <si>
+    <t>boolean var3 = true;</t>
+  </si>
+  <si>
+    <t>double var4 = 123.456;</t>
+  </si>
+  <si>
+    <t>String name = "John Smith";</t>
+  </si>
+  <si>
+    <t>System.out.println("var1: " + var1);</t>
+  </si>
+  <si>
+    <t>System.out.println("var2: " + var2);</t>
+  </si>
+  <si>
+    <t>// 002 Constant</t>
+  </si>
+  <si>
+    <t>public static void main002(String[] args) {</t>
+  </si>
+  <si>
+    <r>
+      <t>var2 đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n thành ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u int(chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i thu h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double var4 = (double) var1 + var2;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>var1 đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n thành ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u double(chuy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng)</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2074,13 +5600,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2111,6 +5630,34 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="163"/>
     </font>
   </fonts>
@@ -2220,7 +5767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2234,9 +5781,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3242,6 +6791,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>39740</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>68745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30974F85-5BD2-7262-52D7-ACCA69821D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="20488275"/>
+          <a:ext cx="12282540" cy="8838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>526113</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>151620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1204B8D5-7FB7-0465-769F-190D319C00BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="911225" y="30029150"/>
+          <a:ext cx="7501588" cy="6241270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6214,8 +9856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E5F8AB-F829-4812-95AD-BC9AA6B518C1}">
   <dimension ref="B3:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="U129" sqref="U129"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="R126" sqref="R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6293,82 +9935,82 @@
     </row>
     <row r="15" spans="2:9">
       <c r="C15" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -6384,572 +10026,312 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="14" t="s">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="15" t="s">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="15" t="s">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="15" t="s">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="15" t="s">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="15" t="s">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="15" t="s">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="15" t="s">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="15" t="s">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+        <v>94</v>
+      </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+        <v>95</v>
+      </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+        <v>96</v>
+      </c>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+        <v>97</v>
+      </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+        <v>98</v>
+      </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+        <v>99</v>
+      </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+        <v>94</v>
+      </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+        <v>95</v>
+      </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+        <v>100</v>
+      </c>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+        <v>101</v>
+      </c>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+        <v>102</v>
+      </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+        <v>103</v>
+      </c>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+        <v>104</v>
+      </c>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+        <v>105</v>
+      </c>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+        <v>106</v>
+      </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+        <v>107</v>
+      </c>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
+        <v>108</v>
+      </c>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
+        <v>109</v>
+      </c>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
+        <v>110</v>
+      </c>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+        <v>111</v>
+      </c>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+        <v>112</v>
+      </c>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
+        <v>88</v>
+      </c>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
+        <v>113</v>
+      </c>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+        <v>114</v>
+      </c>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+        <v>115</v>
+      </c>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+        <v>116</v>
+      </c>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+        <v>88</v>
+      </c>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+        <v>117</v>
+      </c>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+        <v>118</v>
+      </c>
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
+        <v>119</v>
+      </c>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+        <v>120</v>
+      </c>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
+        <v>121</v>
+      </c>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
+        <v>93</v>
+      </c>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+        <v>88</v>
+      </c>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
+        <v>122</v>
+      </c>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+        <v>120</v>
+      </c>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
+        <v>94</v>
+      </c>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="2:8">
@@ -6979,422 +10361,122 @@
     </row>
     <row r="120" spans="2:13">
       <c r="B120" s="4"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="2:13">
       <c r="B121" s="4"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
       <c r="M121" s="5"/>
     </row>
     <row r="122" spans="2:13">
       <c r="B122" s="4"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="2:13">
       <c r="B123" s="4"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="2:13">
       <c r="B124" s="4"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125" spans="2:13">
       <c r="B125" s="4"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
       <c r="M125" s="5"/>
     </row>
     <row r="126" spans="2:13">
       <c r="B126" s="4"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="2:13">
       <c r="B127" s="4"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="2:13">
       <c r="B128" s="4"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
       <c r="M128" s="5"/>
     </row>
     <row r="129" spans="2:13">
       <c r="B129" s="4"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="2:13">
       <c r="B130" s="4"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
       <c r="M130" s="5"/>
     </row>
     <row r="131" spans="2:13">
       <c r="B131" s="4"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
       <c r="M131" s="5"/>
     </row>
     <row r="132" spans="2:13">
       <c r="B132" s="4"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="4"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
       <c r="M133" s="5"/>
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="4"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
       <c r="M134" s="5"/>
     </row>
     <row r="135" spans="2:13">
       <c r="B135" s="4"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
       <c r="M135" s="5"/>
     </row>
     <row r="136" spans="2:13">
       <c r="B136" s="4"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
       <c r="M136" s="5"/>
     </row>
     <row r="137" spans="2:13">
       <c r="B137" s="4"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
       <c r="M137" s="5"/>
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="4"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
       <c r="M138" s="5"/>
     </row>
     <row r="139" spans="2:13">
       <c r="B139" s="4"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="13"/>
       <c r="M139" s="5"/>
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="4"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
       <c r="M140" s="5"/>
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="4"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
       <c r="M141" s="5"/>
     </row>
     <row r="142" spans="2:13">
       <c r="B142" s="4"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
       <c r="M142" s="5"/>
     </row>
     <row r="143" spans="2:13">
       <c r="B143" s="4"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
       <c r="M143" s="5"/>
     </row>
     <row r="144" spans="2:13">
       <c r="B144" s="4"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="13"/>
       <c r="M144" s="5"/>
     </row>
     <row r="145" spans="2:13">
       <c r="B145" s="4"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
       <c r="M145" s="5"/>
     </row>
     <row r="146" spans="2:13">
       <c r="B146" s="4"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
       <c r="M146" s="5"/>
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="4"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
       <c r="M147" s="5"/>
     </row>
     <row r="148" spans="2:13">
       <c r="B148" s="4"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
       <c r="M148" s="5"/>
     </row>
     <row r="149" spans="2:13">
       <c r="B149" s="4"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
       <c r="M149" s="5"/>
     </row>
     <row r="150" spans="2:13">
@@ -7416,4 +10498,1285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9F4B46-6B44-4169-878D-942F3071F7E6}">
+  <dimension ref="B3:M160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="4"/>
+      <c r="C26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="4"/>
+      <c r="C27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="4"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="4"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="4"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="5"/>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="4"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="5"/>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="4"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4"/>
+      <c r="C35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="4"/>
+      <c r="C37" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="4"/>
+      <c r="C38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="4"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="4"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="4"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="4"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="4"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="4"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4"/>
+      <c r="C50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4"/>
+      <c r="C51" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="4"/>
+      <c r="C52" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="4"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="4"/>
+      <c r="C55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="4"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="4"/>
+      <c r="C57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="4"/>
+      <c r="C58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="4"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="4"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="4"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="4"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="4"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="4"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="4"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="4"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="4"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="4"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="4"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="4"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="4"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="4"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="4"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="4"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="4"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="4"/>
+      <c r="C85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="3"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="4"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="5"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" s="4"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="4"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="2:13">
+      <c r="B135" s="4"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="5"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136" s="4"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="2:13">
+      <c r="B137" s="4"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="4"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="4"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="4"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="4"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="4"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="4"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="4"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="4"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="5"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="4"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="4"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="5"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="4"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="5"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="4"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="4"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="4"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="4"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="4"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="4"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="4"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="4"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="4"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="4"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="4"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
+++ b/1.nen-tang-lap-trinh-java/2.Bien-so-hang-so-va-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\1.nen-tang-lap-trinh-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD1F06B-772B-4354-A440-06882D16BB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FBD0D2-D1D6-40A2-8EC7-6AFB5BC11890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="1050" windowWidth="25215" windowHeight="13350" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31440" yWindow="1560" windowWidth="25215" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Package &amp; Eclipe preferences" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="156">
   <si>
     <r>
       <t>T</t>
@@ -5546,6 +5546,10 @@
       </rPr>
       <t>ng)</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Endcoding</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5767,7 +5771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5784,8 +5788,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6509,6 +6511,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>535531</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>37359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0614882A-11D8-0797-18FB-3A27E70B4B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="93097350"/>
+          <a:ext cx="8355556" cy="5923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7147,10 +7193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:T404"/>
+  <dimension ref="B3:T434"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="Q406" sqref="Q406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8686,19 +8732,19 @@
       <c r="B400" s="4"/>
       <c r="J400" s="5"/>
     </row>
-    <row r="401" spans="2:10">
+    <row r="401" spans="2:14">
       <c r="B401" s="4"/>
       <c r="J401" s="5"/>
     </row>
-    <row r="402" spans="2:10">
+    <row r="402" spans="2:14">
       <c r="B402" s="4"/>
       <c r="J402" s="5"/>
     </row>
-    <row r="403" spans="2:10">
+    <row r="403" spans="2:14">
       <c r="B403" s="4"/>
       <c r="J403" s="5"/>
     </row>
-    <row r="404" spans="2:10">
+    <row r="404" spans="2:14">
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
@@ -8708,6 +8754,428 @@
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
       <c r="J404" s="8"/>
+    </row>
+    <row r="407" spans="2:14">
+      <c r="B407" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
+      <c r="H407" s="2"/>
+      <c r="I407" s="2"/>
+      <c r="J407" s="2"/>
+      <c r="K407" s="2"/>
+      <c r="L407" s="2"/>
+      <c r="M407" s="2"/>
+      <c r="N407" s="3"/>
+    </row>
+    <row r="408" spans="2:14">
+      <c r="B408" s="4"/>
+      <c r="C408" s="15"/>
+      <c r="D408" s="15"/>
+      <c r="E408" s="15"/>
+      <c r="F408" s="15"/>
+      <c r="G408" s="15"/>
+      <c r="H408" s="15"/>
+      <c r="I408" s="15"/>
+      <c r="J408" s="15"/>
+      <c r="K408" s="15"/>
+      <c r="L408" s="15"/>
+      <c r="M408" s="15"/>
+      <c r="N408" s="5"/>
+    </row>
+    <row r="409" spans="2:14">
+      <c r="B409" s="4"/>
+      <c r="C409" s="15"/>
+      <c r="D409" s="15"/>
+      <c r="E409" s="15"/>
+      <c r="F409" s="15"/>
+      <c r="G409" s="15"/>
+      <c r="H409" s="15"/>
+      <c r="I409" s="15"/>
+      <c r="J409" s="15"/>
+      <c r="K409" s="15"/>
+      <c r="L409" s="15"/>
+      <c r="M409" s="15"/>
+      <c r="N409" s="5"/>
+    </row>
+    <row r="410" spans="2:14">
+      <c r="B410" s="4"/>
+      <c r="C410" s="15"/>
+      <c r="D410" s="15"/>
+      <c r="E410" s="15"/>
+      <c r="F410" s="15"/>
+      <c r="G410" s="15"/>
+      <c r="H410" s="15"/>
+      <c r="I410" s="15"/>
+      <c r="J410" s="15"/>
+      <c r="K410" s="15"/>
+      <c r="L410" s="15"/>
+      <c r="M410" s="15"/>
+      <c r="N410" s="5"/>
+    </row>
+    <row r="411" spans="2:14">
+      <c r="B411" s="4"/>
+      <c r="C411" s="15"/>
+      <c r="D411" s="15"/>
+      <c r="E411" s="15"/>
+      <c r="F411" s="15"/>
+      <c r="G411" s="15"/>
+      <c r="H411" s="15"/>
+      <c r="I411" s="15"/>
+      <c r="J411" s="15"/>
+      <c r="K411" s="15"/>
+      <c r="L411" s="15"/>
+      <c r="M411" s="15"/>
+      <c r="N411" s="5"/>
+    </row>
+    <row r="412" spans="2:14">
+      <c r="B412" s="4"/>
+      <c r="C412" s="15"/>
+      <c r="D412" s="15"/>
+      <c r="E412" s="15"/>
+      <c r="F412" s="15"/>
+      <c r="G412" s="15"/>
+      <c r="H412" s="15"/>
+      <c r="I412" s="15"/>
+      <c r="J412" s="15"/>
+      <c r="K412" s="15"/>
+      <c r="L412" s="15"/>
+      <c r="M412" s="15"/>
+      <c r="N412" s="5"/>
+    </row>
+    <row r="413" spans="2:14">
+      <c r="B413" s="4"/>
+      <c r="C413" s="15"/>
+      <c r="D413" s="15"/>
+      <c r="E413" s="15"/>
+      <c r="F413" s="15"/>
+      <c r="G413" s="15"/>
+      <c r="H413" s="15"/>
+      <c r="I413" s="15"/>
+      <c r="J413" s="15"/>
+      <c r="K413" s="15"/>
+      <c r="L413" s="15"/>
+      <c r="M413" s="15"/>
+      <c r="N413" s="5"/>
+    </row>
+    <row r="414" spans="2:14">
+      <c r="B414" s="4"/>
+      <c r="C414" s="15"/>
+      <c r="D414" s="15"/>
+      <c r="E414" s="15"/>
+      <c r="F414" s="15"/>
+      <c r="G414" s="15"/>
+      <c r="H414" s="15"/>
+      <c r="I414" s="15"/>
+      <c r="J414" s="15"/>
+      <c r="K414" s="15"/>
+      <c r="L414" s="15"/>
+      <c r="M414" s="15"/>
+      <c r="N414" s="5"/>
+    </row>
+    <row r="415" spans="2:14">
+      <c r="B415" s="4"/>
+      <c r="C415" s="15"/>
+      <c r="D415" s="15"/>
+      <c r="E415" s="15"/>
+      <c r="F415" s="15"/>
+      <c r="G415" s="15"/>
+      <c r="H415" s="15"/>
+      <c r="I415" s="15"/>
+      <c r="J415" s="15"/>
+      <c r="K415" s="15"/>
+      <c r="L415" s="15"/>
+      <c r="M415" s="15"/>
+      <c r="N415" s="5"/>
+    </row>
+    <row r="416" spans="2:14">
+      <c r="B416" s="4"/>
+      <c r="C416" s="15"/>
+      <c r="D416" s="15"/>
+      <c r="E416" s="15"/>
+      <c r="F416" s="15"/>
+      <c r="G416" s="15"/>
+      <c r="H416" s="15"/>
+      <c r="I416" s="15"/>
+      <c r="J416" s="15"/>
+      <c r="K416" s="15"/>
+      <c r="L416" s="15"/>
+      <c r="M416" s="15"/>
+      <c r="N416" s="5"/>
+    </row>
+    <row r="417" spans="2:14">
+      <c r="B417" s="4"/>
+      <c r="C417" s="15"/>
+      <c r="D417" s="15"/>
+      <c r="E417" s="15"/>
+      <c r="F417" s="15"/>
+      <c r="G417" s="15"/>
+      <c r="H417" s="15"/>
+      <c r="I417" s="15"/>
+      <c r="J417" s="15"/>
+      <c r="K417" s="15"/>
+      <c r="L417" s="15"/>
+      <c r="M417" s="15"/>
+      <c r="N417" s="5"/>
+    </row>
+    <row r="418" spans="2:14">
+      <c r="B418" s="4"/>
+      <c r="C418" s="15"/>
+      <c r="D418" s="15"/>
+      <c r="E418" s="15"/>
+      <c r="F418" s="15"/>
+      <c r="G418" s="15"/>
+      <c r="H418" s="15"/>
+      <c r="I418" s="15"/>
+      <c r="J418" s="15"/>
+      <c r="K418" s="15"/>
+      <c r="L418" s="15"/>
+      <c r="M418" s="15"/>
+      <c r="N418" s="5"/>
+    </row>
+    <row r="419" spans="2:14">
+      <c r="B419" s="4"/>
+      <c r="C419" s="15"/>
+      <c r="D419" s="15"/>
+      <c r="E419" s="15"/>
+      <c r="F419" s="15"/>
+      <c r="G419" s="15"/>
+      <c r="H419" s="15"/>
+      <c r="I419" s="15"/>
+      <c r="J419" s="15"/>
+      <c r="K419" s="15"/>
+      <c r="L419" s="15"/>
+      <c r="M419" s="15"/>
+      <c r="N419" s="5"/>
+    </row>
+    <row r="420" spans="2:14">
+      <c r="B420" s="4"/>
+      <c r="C420" s="15"/>
+      <c r="D420" s="15"/>
+      <c r="E420" s="15"/>
+      <c r="F420" s="15"/>
+      <c r="G420" s="15"/>
+      <c r="H420" s="15"/>
+      <c r="I420" s="15"/>
+      <c r="J420" s="15"/>
+      <c r="K420" s="15"/>
+      <c r="L420" s="15"/>
+      <c r="M420" s="15"/>
+      <c r="N420" s="5"/>
+    </row>
+    <row r="421" spans="2:14">
+      <c r="B421" s="4"/>
+      <c r="C421" s="15"/>
+      <c r="D421" s="15"/>
+      <c r="E421" s="15"/>
+      <c r="F421" s="15"/>
+      <c r="G421" s="15"/>
+      <c r="H421" s="15"/>
+      <c r="I421" s="15"/>
+      <c r="J421" s="15"/>
+      <c r="K421" s="15"/>
+      <c r="L421" s="15"/>
+      <c r="M421" s="15"/>
+      <c r="N421" s="5"/>
+    </row>
+    <row r="422" spans="2:14">
+      <c r="B422" s="4"/>
+      <c r="C422" s="15"/>
+      <c r="D422" s="15"/>
+      <c r="E422" s="15"/>
+      <c r="F422" s="15"/>
+      <c r="G422" s="15"/>
+      <c r="H422" s="15"/>
+      <c r="I422" s="15"/>
+      <c r="J422" s="15"/>
+      <c r="K422" s="15"/>
+      <c r="L422" s="15"/>
+      <c r="M422" s="15"/>
+      <c r="N422" s="5"/>
+    </row>
+    <row r="423" spans="2:14">
+      <c r="B423" s="4"/>
+      <c r="C423" s="15"/>
+      <c r="D423" s="15"/>
+      <c r="E423" s="15"/>
+      <c r="F423" s="15"/>
+      <c r="G423" s="15"/>
+      <c r="H423" s="15"/>
+      <c r="I423" s="15"/>
+      <c r="J423" s="15"/>
+      <c r="K423" s="15"/>
+      <c r="L423" s="15"/>
+      <c r="M423" s="15"/>
+      <c r="N423" s="5"/>
+    </row>
+    <row r="424" spans="2:14">
+      <c r="B424" s="4"/>
+      <c r="C424" s="15"/>
+      <c r="D424" s="15"/>
+      <c r="E424" s="15"/>
+      <c r="F424" s="15"/>
+      <c r="G424" s="15"/>
+      <c r="H424" s="15"/>
+      <c r="I424" s="15"/>
+      <c r="J424" s="15"/>
+      <c r="K424" s="15"/>
+      <c r="L424" s="15"/>
+      <c r="M424" s="15"/>
+      <c r="N424" s="5"/>
+    </row>
+    <row r="425" spans="2:14">
+      <c r="B425" s="4"/>
+      <c r="C425" s="15"/>
+      <c r="D425" s="15"/>
+      <c r="E425" s="15"/>
+      <c r="F425" s="15"/>
+      <c r="G425" s="15"/>
+      <c r="H425" s="15"/>
+      <c r="I425" s="15"/>
+      <c r="J425" s="15"/>
+      <c r="K425" s="15"/>
+      <c r="L425" s="15"/>
+      <c r="M425" s="15"/>
+      <c r="N425" s="5"/>
+    </row>
+    <row r="426" spans="2:14">
+      <c r="B426" s="4"/>
+      <c r="C426" s="15"/>
+      <c r="D426" s="15"/>
+      <c r="E426" s="15"/>
+      <c r="F426" s="15"/>
+      <c r="G426" s="15"/>
+      <c r="H426" s="15"/>
+      <c r="I426" s="15"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="15"/>
+      <c r="L426" s="15"/>
+      <c r="M426" s="15"/>
+      <c r="N426" s="5"/>
+    </row>
+    <row r="427" spans="2:14">
+      <c r="B427" s="4"/>
+      <c r="C427" s="15"/>
+      <c r="D427" s="15"/>
+      <c r="E427" s="15"/>
+      <c r="F427" s="15"/>
+      <c r="G427" s="15"/>
+      <c r="H427" s="15"/>
+      <c r="I427" s="15"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="15"/>
+      <c r="L427" s="15"/>
+      <c r="M427" s="15"/>
+      <c r="N427" s="5"/>
+    </row>
+    <row r="428" spans="2:14">
+      <c r="B428" s="4"/>
+      <c r="C428" s="15"/>
+      <c r="D428" s="15"/>
+      <c r="E428" s="15"/>
+      <c r="F428" s="15"/>
+      <c r="G428" s="15"/>
+      <c r="H428" s="15"/>
+      <c r="I428" s="15"/>
+      <c r="J428" s="15"/>
+      <c r="K428" s="15"/>
+      <c r="L428" s="15"/>
+      <c r="M428" s="15"/>
+      <c r="N428" s="5"/>
+    </row>
+    <row r="429" spans="2:14">
+      <c r="B429" s="4"/>
+      <c r="C429" s="15"/>
+      <c r="D429" s="15"/>
+      <c r="E429" s="15"/>
+      <c r="F429" s="15"/>
+      <c r="G429" s="15"/>
+      <c r="H429" s="15"/>
+      <c r="I429" s="15"/>
+      <c r="J429" s="15"/>
+      <c r="K429" s="15"/>
+      <c r="L429" s="15"/>
+      <c r="M429" s="15"/>
+      <c r="N429" s="5"/>
+    </row>
+    <row r="430" spans="2:14">
+      <c r="B430" s="4"/>
+      <c r="C430" s="15"/>
+      <c r="D430" s="15"/>
+      <c r="E430" s="15"/>
+      <c r="F430" s="15"/>
+      <c r="G430" s="15"/>
+      <c r="H430" s="15"/>
+      <c r="I430" s="15"/>
+      <c r="J430" s="15"/>
+      <c r="K430" s="15"/>
+      <c r="L430" s="15"/>
+      <c r="M430" s="15"/>
+      <c r="N430" s="5"/>
+    </row>
+    <row r="431" spans="2:14">
+      <c r="B431" s="4"/>
+      <c r="C431" s="15"/>
+      <c r="D431" s="15"/>
+      <c r="E431" s="15"/>
+      <c r="F431" s="15"/>
+      <c r="G431" s="15"/>
+      <c r="H431" s="15"/>
+      <c r="I431" s="15"/>
+      <c r="J431" s="15"/>
+      <c r="K431" s="15"/>
+      <c r="L431" s="15"/>
+      <c r="M431" s="15"/>
+      <c r="N431" s="5"/>
+    </row>
+    <row r="432" spans="2:14">
+      <c r="B432" s="4"/>
+      <c r="C432" s="15"/>
+      <c r="D432" s="15"/>
+      <c r="E432" s="15"/>
+      <c r="F432" s="15"/>
+      <c r="G432" s="15"/>
+      <c r="H432" s="15"/>
+      <c r="I432" s="15"/>
+      <c r="J432" s="15"/>
+      <c r="K432" s="15"/>
+      <c r="L432" s="15"/>
+      <c r="M432" s="15"/>
+      <c r="N432" s="5"/>
+    </row>
+    <row r="433" spans="2:14">
+      <c r="B433" s="4"/>
+      <c r="C433" s="15"/>
+      <c r="D433" s="15"/>
+      <c r="E433" s="15"/>
+      <c r="F433" s="15"/>
+      <c r="G433" s="15"/>
+      <c r="H433" s="15"/>
+      <c r="I433" s="15"/>
+      <c r="J433" s="15"/>
+      <c r="K433" s="15"/>
+      <c r="L433" s="15"/>
+      <c r="M433" s="15"/>
+      <c r="N433" s="5"/>
+    </row>
+    <row r="434" spans="2:14">
+      <c r="B434" s="6"/>
+      <c r="C434" s="7"/>
+      <c r="D434" s="7"/>
+      <c r="E434" s="7"/>
+      <c r="F434" s="7"/>
+      <c r="G434" s="7"/>
+      <c r="H434" s="7"/>
+      <c r="I434" s="7"/>
+      <c r="J434" s="7"/>
+      <c r="K434" s="7"/>
+      <c r="L434" s="7"/>
+      <c r="M434" s="7"/>
+      <c r="N434" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10504,7 +10972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9F4B46-6B44-4169-878D-942F3071F7E6}">
   <dimension ref="B3:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -10624,77 +11092,47 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="4"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4"/>
-      <c r="C27" s="15" t="s">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
       <c r="H30" s="5"/>
       <c r="I30" t="s">
         <v>35</v>
@@ -10705,13 +11143,9 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
       <c r="H31" s="5"/>
       <c r="I31" t="s">
         <v>35</v>
@@ -10722,625 +11156,405 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="D32" s="12"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4"/>
-      <c r="C35" s="15" t="s">
+      <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4"/>
-      <c r="C37" s="15" t="s">
+      <c r="C37" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="4"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="4"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
+      <c r="D39" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="4"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
+      <c r="D40" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="4"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
+      <c r="D41" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="4"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="s">
+      <c r="D42" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="4"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
+      <c r="D45" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15" t="s">
+      <c r="D46" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
+      <c r="D47" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15" t="s">
+      <c r="D48" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
+      <c r="D49" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4"/>
-      <c r="C50" s="15" t="s">
+      <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4"/>
-      <c r="C51" s="15" t="s">
+      <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4"/>
-      <c r="C52" s="15" t="s">
+      <c r="C52" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="4"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
+      <c r="D53" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="4"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
+      <c r="D54" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="4"/>
-      <c r="C55" s="15" t="s">
+      <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="4"/>
-      <c r="C57" s="15" t="s">
+      <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="4"/>
-      <c r="C58" s="15" t="s">
+      <c r="C58" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="4"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15" t="s">
+      <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="4"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15" t="s">
+      <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="4"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15" t="s">
+      <c r="D61" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="4"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15" t="s">
+      <c r="D62" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="4"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
+      <c r="D63" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15" t="s">
+      <c r="D64" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15" t="s">
+      <c r="D65" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15" t="s">
+      <c r="D66" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15" t="s">
+      <c r="D67" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15" t="s">
+      <c r="D68" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15" t="s">
+      <c r="D69" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="4"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="4"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15" t="s">
+      <c r="D71" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15" t="s">
+      <c r="D72" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15" t="s">
+      <c r="F72" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="15"/>
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15" t="s">
+      <c r="D73" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15" t="s">
+      <c r="F73" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="15"/>
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15" t="s">
+      <c r="D74" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="4"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
       <c r="H75" s="5"/>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="4"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15" t="s">
+      <c r="D76" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15" t="s">
+      <c r="F76" t="s">
         <v>43</v>
       </c>
-      <c r="G76" s="15"/>
       <c r="H76" s="5"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15" t="s">
+      <c r="D77" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15" t="s">
+      <c r="F77" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="15"/>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="4"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15" t="s">
+      <c r="D78" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="4"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15" t="s">
+      <c r="D79" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15" t="s">
+      <c r="D80" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
       <c r="H80" s="5"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15" t="s">
+      <c r="D81" t="s">
         <v>48</v>
       </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
       <c r="H81" s="5"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
       <c r="H82" s="5"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15" t="s">
+      <c r="D83" t="s">
         <v>49</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15" t="s">
+      <c r="D84" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="15" t="s">
+      <c r="C85" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
       <c r="H85" s="5"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
       <c r="H86" s="5"/>
     </row>
     <row r="87" spans="2:8">
@@ -11370,394 +11584,114 @@
     </row>
     <row r="132" spans="2:13">
       <c r="B132" s="4"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="2:13">
       <c r="B133" s="4"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
       <c r="M133" s="5"/>
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="4"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
       <c r="M134" s="5"/>
     </row>
     <row r="135" spans="2:13">
       <c r="B135" s="4"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
       <c r="M135" s="5"/>
     </row>
     <row r="136" spans="2:13">
       <c r="B136" s="4"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
       <c r="M136" s="5"/>
     </row>
     <row r="137" spans="2:13">
       <c r="B137" s="4"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
       <c r="M137" s="5"/>
     </row>
     <row r="138" spans="2:13">
       <c r="B138" s="4"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
       <c r="M138" s="5"/>
     </row>
     <row r="139" spans="2:13">
       <c r="B139" s="4"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
       <c r="M139" s="5"/>
     </row>
     <row r="140" spans="2:13">
       <c r="B140" s="4"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
       <c r="M140" s="5"/>
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="4"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
       <c r="M141" s="5"/>
     </row>
     <row r="142" spans="2:13">
       <c r="B142" s="4"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
       <c r="M142" s="5"/>
     </row>
     <row r="143" spans="2:13">
       <c r="B143" s="4"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
       <c r="M143" s="5"/>
     </row>
     <row r="144" spans="2:13">
       <c r="B144" s="4"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
       <c r="M144" s="5"/>
     </row>
     <row r="145" spans="2:13">
       <c r="B145" s="4"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
       <c r="M145" s="5"/>
     </row>
     <row r="146" spans="2:13">
       <c r="B146" s="4"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
       <c r="M146" s="5"/>
     </row>
     <row r="147" spans="2:13">
       <c r="B147" s="4"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
       <c r="M147" s="5"/>
     </row>
     <row r="148" spans="2:13">
       <c r="B148" s="4"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
       <c r="M148" s="5"/>
     </row>
     <row r="149" spans="2:13">
       <c r="B149" s="4"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
       <c r="M149" s="5"/>
     </row>
     <row r="150" spans="2:13">
       <c r="B150" s="4"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
       <c r="M150" s="5"/>
     </row>
     <row r="151" spans="2:13">
       <c r="B151" s="4"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
       <c r="M151" s="5"/>
     </row>
     <row r="152" spans="2:13">
       <c r="B152" s="4"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
       <c r="M152" s="5"/>
     </row>
     <row r="153" spans="2:13">
       <c r="B153" s="4"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
       <c r="M153" s="5"/>
     </row>
     <row r="154" spans="2:13">
       <c r="B154" s="4"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
       <c r="M154" s="5"/>
     </row>
     <row r="155" spans="2:13">
       <c r="B155" s="4"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
       <c r="M155" s="5"/>
     </row>
     <row r="156" spans="2:13">
       <c r="B156" s="4"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
       <c r="M156" s="5"/>
     </row>
     <row r="157" spans="2:13">
       <c r="B157" s="4"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
       <c r="M157" s="5"/>
     </row>
     <row r="158" spans="2:13">
       <c r="B158" s="4"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
       <c r="M158" s="5"/>
     </row>
     <row r="159" spans="2:13">
       <c r="B159" s="4"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
       <c r="M159" s="5"/>
     </row>
     <row r="160" spans="2:13">
